--- a/data/pca/factorExposure/factorExposure_2017-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01813144751156366</v>
+        <v>0.01098731809270865</v>
       </c>
       <c r="C2">
-        <v>0.01664206097261317</v>
+        <v>-0.04284848698258855</v>
       </c>
       <c r="D2">
-        <v>-0.03302795371079034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03024738392815479</v>
+      </c>
+      <c r="E2">
+        <v>0.04190157046301721</v>
+      </c>
+      <c r="F2">
+        <v>-0.002350493258108871</v>
+      </c>
+      <c r="G2">
+        <v>-0.1061421919801564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02237055430934648</v>
+        <v>0.03964511256668586</v>
       </c>
       <c r="C3">
-        <v>-0.00343973799852941</v>
+        <v>-0.1000113628076336</v>
       </c>
       <c r="D3">
-        <v>-0.08946591658267769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01779212516387274</v>
+      </c>
+      <c r="E3">
+        <v>0.1018659453604952</v>
+      </c>
+      <c r="F3">
+        <v>-0.008953372969957506</v>
+      </c>
+      <c r="G3">
+        <v>-0.1520586342863504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02757925410674019</v>
+        <v>0.05555824057312776</v>
       </c>
       <c r="C4">
-        <v>0.008621042807533322</v>
+        <v>-0.06808082047902146</v>
       </c>
       <c r="D4">
-        <v>-0.07767691159327193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02487297410555786</v>
+      </c>
+      <c r="E4">
+        <v>0.03679025376372896</v>
+      </c>
+      <c r="F4">
+        <v>0.004333869706240361</v>
+      </c>
+      <c r="G4">
+        <v>-0.1006876526729142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.009914330142803832</v>
+        <v>0.03624974506999486</v>
       </c>
       <c r="C6">
-        <v>0.01105249292117181</v>
+        <v>-0.05023700909956269</v>
       </c>
       <c r="D6">
-        <v>-0.07072785907983026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01723956809650101</v>
+      </c>
+      <c r="E6">
+        <v>0.04111656250942156</v>
+      </c>
+      <c r="F6">
+        <v>0.001933507894925949</v>
+      </c>
+      <c r="G6">
+        <v>-0.08606099912961354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0003531528132570399</v>
+        <v>0.02066916157167693</v>
       </c>
       <c r="C7">
-        <v>0.01321827805463499</v>
+        <v>-0.03949348639659651</v>
       </c>
       <c r="D7">
-        <v>-0.03326038191549659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0140017474887796</v>
+      </c>
+      <c r="E7">
+        <v>0.007334584480065392</v>
+      </c>
+      <c r="F7">
+        <v>-0.00606397065996802</v>
+      </c>
+      <c r="G7">
+        <v>-0.1232783667972222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003867733269717445</v>
+        <v>0.00317791667974699</v>
       </c>
       <c r="C8">
-        <v>0.00326164996860301</v>
+        <v>-0.02374179871108041</v>
       </c>
       <c r="D8">
-        <v>0.008076438046193469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004031259270141654</v>
+      </c>
+      <c r="E8">
+        <v>0.0318931277812067</v>
+      </c>
+      <c r="F8">
+        <v>0.002954222734573983</v>
+      </c>
+      <c r="G8">
+        <v>-0.07072892299557325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01211063998266004</v>
+        <v>0.03285982793527022</v>
       </c>
       <c r="C9">
-        <v>0.008854040383522249</v>
+        <v>-0.05019785457969789</v>
       </c>
       <c r="D9">
-        <v>-0.05558628546146311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01656771295049062</v>
+      </c>
+      <c r="E9">
+        <v>0.02496898538193431</v>
+      </c>
+      <c r="F9">
+        <v>0.003679164688687986</v>
+      </c>
+      <c r="G9">
+        <v>-0.102659866601823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1465718772783393</v>
+        <v>0.09813336709151087</v>
       </c>
       <c r="C10">
-        <v>-0.1036139499392046</v>
+        <v>0.1833901037998879</v>
       </c>
       <c r="D10">
-        <v>0.1134106404495815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01559836264484239</v>
+      </c>
+      <c r="E10">
+        <v>0.01945736549326741</v>
+      </c>
+      <c r="F10">
+        <v>-0.02265788227611176</v>
+      </c>
+      <c r="G10">
+        <v>-0.05372301559072502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00290633078391833</v>
+        <v>0.03516869979391241</v>
       </c>
       <c r="C11">
-        <v>-0.0009123373098206267</v>
+        <v>-0.05218849669537277</v>
       </c>
       <c r="D11">
-        <v>-0.0502573089353885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002554349497564879</v>
+      </c>
+      <c r="E11">
+        <v>0.02020918324382132</v>
+      </c>
+      <c r="F11">
+        <v>0.01541937802803781</v>
+      </c>
+      <c r="G11">
+        <v>-0.09111274921252469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007310874743521732</v>
+        <v>0.03701947495599672</v>
       </c>
       <c r="C12">
-        <v>0.001965559819511507</v>
+        <v>-0.04697697302780945</v>
       </c>
       <c r="D12">
-        <v>-0.04418761336716088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006633677712145935</v>
+      </c>
+      <c r="E12">
+        <v>0.01042403646148185</v>
+      </c>
+      <c r="F12">
+        <v>-0.0007997858867846247</v>
+      </c>
+      <c r="G12">
+        <v>-0.08322674823887848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01629288674785477</v>
+        <v>0.01477926204871885</v>
       </c>
       <c r="C13">
-        <v>0.01477869209000432</v>
+        <v>-0.04207776155528052</v>
       </c>
       <c r="D13">
-        <v>-0.03407760144955554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02689009180113451</v>
+      </c>
+      <c r="E13">
+        <v>0.04063667279046899</v>
+      </c>
+      <c r="F13">
+        <v>-0.004569330402404443</v>
+      </c>
+      <c r="G13">
+        <v>-0.1430951576712489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002775192042288405</v>
+        <v>0.00843379931530008</v>
       </c>
       <c r="C14">
-        <v>0.006364799092413395</v>
+        <v>-0.02831763838540082</v>
       </c>
       <c r="D14">
-        <v>-0.01870328376753997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01035525946532036</v>
+      </c>
+      <c r="E14">
+        <v>0.008717367253636032</v>
+      </c>
+      <c r="F14">
+        <v>-0.009318470264403654</v>
+      </c>
+      <c r="G14">
+        <v>-0.111275948427838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006318188177340079</v>
+        <v>0.03370647325567789</v>
       </c>
       <c r="C16">
-        <v>-0.003315968965831085</v>
+        <v>-0.04540100696883782</v>
       </c>
       <c r="D16">
-        <v>-0.03963797031936112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001998484616126402</v>
+      </c>
+      <c r="E16">
+        <v>0.01526300916568643</v>
+      </c>
+      <c r="F16">
+        <v>-0.003012360056944636</v>
+      </c>
+      <c r="G16">
+        <v>-0.09265930397231485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009452578576638315</v>
+        <v>0.02143435908269154</v>
       </c>
       <c r="C19">
-        <v>0.009124877009329123</v>
+        <v>-0.05164147685595104</v>
       </c>
       <c r="D19">
-        <v>-0.03982540179040185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01993372276211159</v>
+      </c>
+      <c r="E19">
+        <v>0.08584918572750477</v>
+      </c>
+      <c r="F19">
+        <v>0.005816095372707508</v>
+      </c>
+      <c r="G19">
+        <v>-0.1432085706824821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.00266350640301599</v>
+        <v>0.01543707254724415</v>
       </c>
       <c r="C20">
-        <v>0.01102321867158838</v>
+        <v>-0.04203230462471549</v>
       </c>
       <c r="D20">
-        <v>-0.03320366401969482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01454439480801476</v>
+      </c>
+      <c r="E20">
+        <v>0.03879641568043094</v>
+      </c>
+      <c r="F20">
+        <v>-0.01880343027356099</v>
+      </c>
+      <c r="G20">
+        <v>-0.1131380138235442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005326369596789604</v>
+        <v>0.01077850684325406</v>
       </c>
       <c r="C21">
-        <v>0.01184965438646999</v>
+        <v>-0.03833927677102394</v>
       </c>
       <c r="D21">
-        <v>-0.01478777711046551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01977208446614815</v>
+      </c>
+      <c r="E21">
+        <v>0.05061958167960676</v>
+      </c>
+      <c r="F21">
+        <v>-0.006029207396174936</v>
+      </c>
+      <c r="G21">
+        <v>-0.1441199008842692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009958349921894707</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006748048322575714</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.001952889649515354</v>
+      </c>
+      <c r="E22">
+        <v>0.01513292148627356</v>
+      </c>
+      <c r="F22">
+        <v>0.009892205482232942</v>
+      </c>
+      <c r="G22">
+        <v>-0.001484559137372402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009958412339970463</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006749323046598771</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.001948552767784796</v>
+      </c>
+      <c r="E23">
+        <v>0.01509297059814943</v>
+      </c>
+      <c r="F23">
+        <v>0.009856538838822764</v>
+      </c>
+      <c r="G23">
+        <v>-0.001370414381054381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.001298052975509011</v>
+        <v>0.02928195019409577</v>
       </c>
       <c r="C24">
-        <v>0.005442419197645899</v>
+        <v>-0.0481699983821369</v>
       </c>
       <c r="D24">
-        <v>-0.04041383013842492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007272772158547314</v>
+      </c>
+      <c r="E24">
+        <v>0.01580752435305432</v>
+      </c>
+      <c r="F24">
+        <v>0.007080679939930154</v>
+      </c>
+      <c r="G24">
+        <v>-0.09336211341009248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01660979565517724</v>
+        <v>0.04272162200264437</v>
       </c>
       <c r="C25">
-        <v>0.001524120668414741</v>
+        <v>-0.05664097997162004</v>
       </c>
       <c r="D25">
-        <v>-0.05658011369171208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01128140298201744</v>
+      </c>
+      <c r="E25">
+        <v>0.006014299795534698</v>
+      </c>
+      <c r="F25">
+        <v>0.002647855530341973</v>
+      </c>
+      <c r="G25">
+        <v>-0.09851407901417858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01124894576667089</v>
+        <v>0.01412058811906218</v>
       </c>
       <c r="C26">
-        <v>0.01873493774452628</v>
+        <v>-0.01182093316605483</v>
       </c>
       <c r="D26">
-        <v>0.000441429700421349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02423175465912714</v>
+      </c>
+      <c r="E26">
+        <v>0.009667667046512403</v>
+      </c>
+      <c r="F26">
+        <v>-0.008047284353018559</v>
+      </c>
+      <c r="G26">
+        <v>-0.0861384735331249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1928018313055898</v>
+        <v>0.1262087474281698</v>
       </c>
       <c r="C28">
-        <v>-0.1186472950575815</v>
+        <v>0.2426792590029883</v>
       </c>
       <c r="D28">
-        <v>0.139441857662495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006797813084169688</v>
+      </c>
+      <c r="E28">
+        <v>0.0079034317548346</v>
+      </c>
+      <c r="F28">
+        <v>-0.01896477647211736</v>
+      </c>
+      <c r="G28">
+        <v>-0.04661595690221364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0072392321504302</v>
+        <v>0.008749742816906233</v>
       </c>
       <c r="C29">
-        <v>0.003005871396422338</v>
+        <v>-0.02302402312263178</v>
       </c>
       <c r="D29">
-        <v>-0.01489293859332681</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009421200914910204</v>
+      </c>
+      <c r="E29">
+        <v>0.004810280281090482</v>
+      </c>
+      <c r="F29">
+        <v>-0.0151775274269221</v>
+      </c>
+      <c r="G29">
+        <v>-0.103304716257469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01093236495498416</v>
+        <v>0.04064482055708168</v>
       </c>
       <c r="C30">
-        <v>0.02147875661962816</v>
+        <v>-0.06863319095629117</v>
       </c>
       <c r="D30">
-        <v>-0.09263386719148087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02950585921138422</v>
+      </c>
+      <c r="E30">
+        <v>0.06828391581703486</v>
+      </c>
+      <c r="F30">
+        <v>0.03350004873162913</v>
+      </c>
+      <c r="G30">
+        <v>-0.1388811493447485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02235085245514401</v>
+        <v>0.05312245945350641</v>
       </c>
       <c r="C31">
-        <v>-0.008902812254726476</v>
+        <v>-0.03926158367012134</v>
       </c>
       <c r="D31">
-        <v>-0.02902837291528894</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003763096971023523</v>
+      </c>
+      <c r="E31">
+        <v>-0.003460076914231147</v>
+      </c>
+      <c r="F31">
+        <v>-0.03912633661067644</v>
+      </c>
+      <c r="G31">
+        <v>-0.09699843341702449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004307586574390435</v>
+        <v>0.002595188972310817</v>
       </c>
       <c r="C32">
-        <v>-0.006809501771836994</v>
+        <v>-0.02124883818411421</v>
       </c>
       <c r="D32">
-        <v>0.003917658152877308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002611211558914006</v>
+      </c>
+      <c r="E32">
+        <v>0.04073768135506048</v>
+      </c>
+      <c r="F32">
+        <v>0.03302113415138958</v>
+      </c>
+      <c r="G32">
+        <v>-0.09165872552549441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009175014758061737</v>
+        <v>0.02811956270231066</v>
       </c>
       <c r="C33">
-        <v>0.007211832681316541</v>
+        <v>-0.05104428720855172</v>
       </c>
       <c r="D33">
-        <v>-0.04108110380775899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0164669023277622</v>
+      </c>
+      <c r="E33">
+        <v>0.04949169819883836</v>
+      </c>
+      <c r="F33">
+        <v>0.009733129559009287</v>
+      </c>
+      <c r="G33">
+        <v>-0.1650174483958685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01294542092631382</v>
+        <v>0.04062968248648118</v>
       </c>
       <c r="C34">
-        <v>-0.01521447410625042</v>
+        <v>-0.05828445152154575</v>
       </c>
       <c r="D34">
-        <v>-0.05775360837945404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004347854513458671</v>
+      </c>
+      <c r="E34">
+        <v>0.01143821478705026</v>
+      </c>
+      <c r="F34">
+        <v>0.01846494621175006</v>
+      </c>
+      <c r="G34">
+        <v>-0.09494049042579771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01248575085758471</v>
+        <v>0.01572658100226409</v>
       </c>
       <c r="C36">
-        <v>0.00445675929159561</v>
+        <v>-0.01073409985286873</v>
       </c>
       <c r="D36">
-        <v>-0.003919524147440832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01293384002672323</v>
+      </c>
+      <c r="E36">
+        <v>0.01050103791028321</v>
+      </c>
+      <c r="F36">
+        <v>-0.009326824957519932</v>
+      </c>
+      <c r="G36">
+        <v>-0.09430761529775386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01710459328145523</v>
+        <v>0.03170242793388817</v>
       </c>
       <c r="C38">
-        <v>-0.0203170753825015</v>
+        <v>-0.03023082137456087</v>
       </c>
       <c r="D38">
-        <v>-0.037643471404763</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007553682222260126</v>
+      </c>
+      <c r="E38">
+        <v>0.006524439034996291</v>
+      </c>
+      <c r="F38">
+        <v>-0.01892152617289536</v>
+      </c>
+      <c r="G38">
+        <v>-0.08557385874598868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01075508034711899</v>
+        <v>0.0370666581968158</v>
       </c>
       <c r="C39">
-        <v>0.01747743695335717</v>
+        <v>-0.078673736592523</v>
       </c>
       <c r="D39">
-        <v>-0.09655818167788179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01176818789796904</v>
+      </c>
+      <c r="E39">
+        <v>0.03131868368545652</v>
+      </c>
+      <c r="F39">
+        <v>0.01791533039914101</v>
+      </c>
+      <c r="G39">
+        <v>-0.09236528600552321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01544499329261956</v>
+        <v>0.01372482858541904</v>
       </c>
       <c r="C40">
-        <v>0.002352374593669715</v>
+        <v>-0.03800068986807299</v>
       </c>
       <c r="D40">
-        <v>-0.02934296372229731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01485831849423017</v>
+      </c>
+      <c r="E40">
+        <v>0.03351250888060045</v>
+      </c>
+      <c r="F40">
+        <v>-0.0127572780050559</v>
+      </c>
+      <c r="G40">
+        <v>-0.1246132617407622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01338731589455367</v>
+        <v>0.01992491373516737</v>
       </c>
       <c r="C41">
-        <v>-0.00505314782079016</v>
+        <v>-0.003899240603938053</v>
       </c>
       <c r="D41">
-        <v>0.01098580060979835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004791166501396111</v>
+      </c>
+      <c r="E41">
+        <v>0.008128017371738116</v>
+      </c>
+      <c r="F41">
+        <v>-0.01642791328655852</v>
+      </c>
+      <c r="G41">
+        <v>-0.08772839526761551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03924102763915975</v>
+        <v>0.008348680803079867</v>
       </c>
       <c r="C42">
-        <v>0.08346951307213196</v>
+        <v>-0.02810102349719789</v>
       </c>
       <c r="D42">
-        <v>-0.1108541226032595</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08714867592576994</v>
+      </c>
+      <c r="E42">
+        <v>0.009594406016225339</v>
+      </c>
+      <c r="F42">
+        <v>-0.04130111548956066</v>
+      </c>
+      <c r="G42">
+        <v>0.02966146017374698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01395428538886537</v>
+        <v>0.03531685947881607</v>
       </c>
       <c r="C43">
-        <v>-0.004473691167381513</v>
+        <v>-0.01927199122918605</v>
       </c>
       <c r="D43">
-        <v>0.008444456989756363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006142604795525187</v>
+      </c>
+      <c r="E43">
+        <v>0.02191976557351192</v>
+      </c>
+      <c r="F43">
+        <v>-0.01084847330765539</v>
+      </c>
+      <c r="G43">
+        <v>-0.1208591044024073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001748637929143357</v>
+        <v>0.01393536688633413</v>
       </c>
       <c r="C44">
-        <v>0.004265466762618755</v>
+        <v>-0.05858553470328366</v>
       </c>
       <c r="D44">
-        <v>-0.04625931971420223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006984892288096038</v>
+      </c>
+      <c r="E44">
+        <v>0.0262361750592013</v>
+      </c>
+      <c r="F44">
+        <v>-0.01136728080984695</v>
+      </c>
+      <c r="G44">
+        <v>-0.1110095061521806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00639592635153386</v>
+        <v>0.008849255263884052</v>
       </c>
       <c r="C46">
-        <v>0.007215601398266279</v>
+        <v>-0.01509546203689991</v>
       </c>
       <c r="D46">
-        <v>0.003938069020913627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259463450997278</v>
+      </c>
+      <c r="E46">
+        <v>-0.0007750984130329</v>
+      </c>
+      <c r="F46">
+        <v>-0.01988806897103332</v>
+      </c>
+      <c r="G46">
+        <v>-0.1107789192543051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02566661459590747</v>
+        <v>0.07851875110884542</v>
       </c>
       <c r="C47">
-        <v>-0.01909146491036412</v>
+        <v>-0.06901180933112452</v>
       </c>
       <c r="D47">
-        <v>-0.07501943296651167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005091627370030527</v>
+      </c>
+      <c r="E47">
+        <v>-0.0108996636973562</v>
+      </c>
+      <c r="F47">
+        <v>-0.05397818608529574</v>
+      </c>
+      <c r="G47">
+        <v>-0.08236887835376504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00772659787085089</v>
+        <v>0.01830929627782353</v>
       </c>
       <c r="C48">
-        <v>-0.003822751702251212</v>
+        <v>-0.01366551240299608</v>
       </c>
       <c r="D48">
-        <v>-0.01614221334015182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002547942826689434</v>
+      </c>
+      <c r="E48">
+        <v>0.006485783086357331</v>
+      </c>
+      <c r="F48">
+        <v>-0.02076827605351761</v>
+      </c>
+      <c r="G48">
+        <v>-0.09985348079372725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03088928522696402</v>
+        <v>0.07438280866956187</v>
       </c>
       <c r="C50">
-        <v>-0.02048680507241998</v>
+        <v>-0.07280055626176737</v>
       </c>
       <c r="D50">
-        <v>-0.06725354104984409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00210528151385101</v>
+      </c>
+      <c r="E50">
+        <v>-0.007658752930977716</v>
+      </c>
+      <c r="F50">
+        <v>-0.05508400318786232</v>
+      </c>
+      <c r="G50">
+        <v>-0.09339653361913275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.009075479366252154</v>
+        <v>0.01336461621156744</v>
       </c>
       <c r="C51">
-        <v>0.0009817197539455417</v>
+        <v>-0.03757721550794871</v>
       </c>
       <c r="D51">
-        <v>-0.02452294129137367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01082187877858203</v>
+      </c>
+      <c r="E51">
+        <v>0.02909452788776717</v>
+      </c>
+      <c r="F51">
+        <v>0.01537614779807274</v>
+      </c>
+      <c r="G51">
+        <v>-0.125049897378631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04025601747389188</v>
+        <v>0.08159731007922136</v>
       </c>
       <c r="C53">
-        <v>-0.02634861751353381</v>
+        <v>-0.08519493032289972</v>
       </c>
       <c r="D53">
-        <v>-0.1194693148170322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003379316381736554</v>
+      </c>
+      <c r="E53">
+        <v>-0.0293901263655637</v>
+      </c>
+      <c r="F53">
+        <v>-0.0606768076339417</v>
+      </c>
+      <c r="G53">
+        <v>-0.08893399493840831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01601926254843441</v>
+        <v>0.03173177942210018</v>
       </c>
       <c r="C54">
-        <v>-0.01411480525866698</v>
+        <v>-0.01907869702241802</v>
       </c>
       <c r="D54">
-        <v>0.0003376104942228081</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009329894545681627</v>
+      </c>
+      <c r="E54">
+        <v>0.02052915965999765</v>
+      </c>
+      <c r="F54">
+        <v>-0.008737843153664025</v>
+      </c>
+      <c r="G54">
+        <v>-0.1115825844862037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02318026555007614</v>
+        <v>0.07321546294061057</v>
       </c>
       <c r="C55">
-        <v>-0.01659017558105874</v>
+        <v>-0.06761438668902893</v>
       </c>
       <c r="D55">
-        <v>-0.09581067277126411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005101711326100009</v>
+      </c>
+      <c r="E55">
+        <v>-0.02706952568674448</v>
+      </c>
+      <c r="F55">
+        <v>-0.06011746639611096</v>
+      </c>
+      <c r="G55">
+        <v>-0.06495729038125776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04719210530569719</v>
+        <v>0.1366132569467417</v>
       </c>
       <c r="C56">
-        <v>-0.03619545260450197</v>
+        <v>-0.1079525517595987</v>
       </c>
       <c r="D56">
-        <v>-0.1583658314941341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01307176659129709</v>
+      </c>
+      <c r="E56">
+        <v>-0.03998316948895409</v>
+      </c>
+      <c r="F56">
+        <v>-0.07680658825717195</v>
+      </c>
+      <c r="G56">
+        <v>-0.03398727257094863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01859233776537449</v>
+        <v>0.005475316732587089</v>
       </c>
       <c r="C57">
-        <v>0.01426335444740101</v>
+        <v>-0.005916230476381842</v>
       </c>
       <c r="D57">
-        <v>-0.02923305111079784</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02263729457237412</v>
+      </c>
+      <c r="E57">
+        <v>0.02465322373407753</v>
+      </c>
+      <c r="F57">
+        <v>0.004296027832217332</v>
+      </c>
+      <c r="G57">
+        <v>-0.02179535524920827</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.005990505090729296</v>
+        <v>0.04718717964050671</v>
       </c>
       <c r="C58">
-        <v>0.006447978226727277</v>
+        <v>-0.04686672024874847</v>
       </c>
       <c r="D58">
-        <v>-0.1940622955808692</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02391355899981351</v>
+      </c>
+      <c r="E58">
+        <v>0.8720478055095903</v>
+      </c>
+      <c r="F58">
+        <v>-0.3704430270081645</v>
+      </c>
+      <c r="G58">
+        <v>0.2463444503452122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2163446723860127</v>
+        <v>0.1591395559413408</v>
       </c>
       <c r="C59">
-        <v>-0.1397765186528066</v>
+        <v>0.2073977303568931</v>
       </c>
       <c r="D59">
-        <v>0.1163686484756647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01160214095665515</v>
+      </c>
+      <c r="E59">
+        <v>0.02270104405275818</v>
+      </c>
+      <c r="F59">
+        <v>-0.006469527099052864</v>
+      </c>
+      <c r="G59">
+        <v>-0.04185949587394659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2017723352419779</v>
+        <v>0.2896842257736419</v>
       </c>
       <c r="C60">
-        <v>-0.1089334224699551</v>
+        <v>-0.1113374741934147</v>
       </c>
       <c r="D60">
-        <v>-0.187470159710433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01267514309579336</v>
+      </c>
+      <c r="E60">
+        <v>0.04757605583030542</v>
+      </c>
+      <c r="F60">
+        <v>0.3479499171206256</v>
+      </c>
+      <c r="G60">
+        <v>0.1584936383259481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001366872748673196</v>
+        <v>0.03932248764982216</v>
       </c>
       <c r="C61">
-        <v>0.002991996623377187</v>
+        <v>-0.06567252035547087</v>
       </c>
       <c r="D61">
-        <v>-0.0763501136864881</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005852535409560557</v>
+      </c>
+      <c r="E61">
+        <v>0.0269280274072476</v>
+      </c>
+      <c r="F61">
+        <v>0.01109373828662808</v>
+      </c>
+      <c r="G61">
+        <v>-0.09952106529604658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.003955695807792719</v>
+        <v>0.01484817330988342</v>
       </c>
       <c r="C63">
-        <v>0.006094434541269944</v>
+        <v>-0.03076866497845693</v>
       </c>
       <c r="D63">
-        <v>-0.02151452693493706</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008837240155512285</v>
+      </c>
+      <c r="E63">
+        <v>0.005916066358431261</v>
+      </c>
+      <c r="F63">
+        <v>-0.01518994755420598</v>
+      </c>
+      <c r="G63">
+        <v>-0.09554583173586954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.025370164381457</v>
+        <v>0.04906654069606865</v>
       </c>
       <c r="C64">
-        <v>-0.01035849636904615</v>
+        <v>-0.04727271990594143</v>
       </c>
       <c r="D64">
-        <v>-0.05374229413656391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006227899239552644</v>
+      </c>
+      <c r="E64">
+        <v>0.006204694271966947</v>
+      </c>
+      <c r="F64">
+        <v>0.002531842050702536</v>
+      </c>
+      <c r="G64">
+        <v>-0.09895439087249323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03333244990460474</v>
+        <v>0.07486584955895863</v>
       </c>
       <c r="C65">
-        <v>-0.001731972252995012</v>
+        <v>-0.05818550527020611</v>
       </c>
       <c r="D65">
-        <v>-0.1116485296219463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01694143311967408</v>
+      </c>
+      <c r="E65">
+        <v>0.04599144314271369</v>
+      </c>
+      <c r="F65">
+        <v>0.02171405474115638</v>
+      </c>
+      <c r="G65">
+        <v>-0.04364945725863861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.009581128887500612</v>
+        <v>0.05040112775761935</v>
       </c>
       <c r="C66">
-        <v>0.0163253180417221</v>
+        <v>-0.1054287009621117</v>
       </c>
       <c r="D66">
-        <v>-0.1373021448314697</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01205476287111459</v>
+      </c>
+      <c r="E66">
+        <v>0.04678693768580287</v>
+      </c>
+      <c r="F66">
+        <v>0.02851653807256132</v>
+      </c>
+      <c r="G66">
+        <v>-0.1066267701741715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03934788755761072</v>
+        <v>0.0547405649821397</v>
       </c>
       <c r="C67">
-        <v>-0.03070841072780231</v>
+        <v>-0.03430317885643128</v>
       </c>
       <c r="D67">
-        <v>-0.05948220124062002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00612998654634845</v>
+      </c>
+      <c r="E67">
+        <v>-0.003444546014129327</v>
+      </c>
+      <c r="F67">
+        <v>-0.0167987371957259</v>
+      </c>
+      <c r="G67">
+        <v>-0.07182929543531097</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.226166929022815</v>
+        <v>0.1562699004744929</v>
       </c>
       <c r="C68">
-        <v>-0.1233305329630231</v>
+        <v>0.2713015235814647</v>
       </c>
       <c r="D68">
-        <v>0.1756779767089255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005534364554885994</v>
+      </c>
+      <c r="E68">
+        <v>0.009954022078492133</v>
+      </c>
+      <c r="F68">
+        <v>-0.04351839967760473</v>
+      </c>
+      <c r="G68">
+        <v>-0.0275181274231126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02971156945315107</v>
+        <v>0.08166098842274172</v>
       </c>
       <c r="C69">
-        <v>-0.02616695929101513</v>
+        <v>-0.07211626492977066</v>
       </c>
       <c r="D69">
-        <v>-0.07736532274138495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008982851407137947</v>
+      </c>
+      <c r="E69">
+        <v>-0.02392147089663984</v>
+      </c>
+      <c r="F69">
+        <v>-0.03496976843240047</v>
+      </c>
+      <c r="G69">
+        <v>-0.1012085766819772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1842293462552964</v>
+        <v>0.1415995558557502</v>
       </c>
       <c r="C71">
-        <v>-0.107969001684379</v>
+        <v>0.2290325006683957</v>
       </c>
       <c r="D71">
-        <v>0.1183512293131119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002780820860483374</v>
+      </c>
+      <c r="E71">
+        <v>0.03233721597034192</v>
+      </c>
+      <c r="F71">
+        <v>-0.03184211291228822</v>
+      </c>
+      <c r="G71">
+        <v>-0.06896224710304956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01753042752195222</v>
+        <v>0.08611752589204932</v>
       </c>
       <c r="C72">
-        <v>-0.01883422968626913</v>
+        <v>-0.06789344359545135</v>
       </c>
       <c r="D72">
-        <v>-0.09267425721575447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008623304361537821</v>
+      </c>
+      <c r="E72">
+        <v>-0.00912904706097317</v>
+      </c>
+      <c r="F72">
+        <v>0.0304375011392919</v>
+      </c>
+      <c r="G72">
+        <v>-0.0901829281396393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2562459582985489</v>
+        <v>0.3781981447766009</v>
       </c>
       <c r="C73">
-        <v>-0.1342571907708087</v>
+        <v>-0.1149185679558047</v>
       </c>
       <c r="D73">
-        <v>-0.2850671295668754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02229906458339213</v>
+      </c>
+      <c r="E73">
+        <v>0.1417738764076951</v>
+      </c>
+      <c r="F73">
+        <v>0.5699382995706493</v>
+      </c>
+      <c r="G73">
+        <v>0.2824959832554069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04829810374379379</v>
+        <v>0.1053278697528579</v>
       </c>
       <c r="C74">
-        <v>-0.03802006357342119</v>
+        <v>-0.1094118527608844</v>
       </c>
       <c r="D74">
-        <v>-0.1680212462384597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009346342254522272</v>
+      </c>
+      <c r="E74">
+        <v>-0.01294563835396425</v>
+      </c>
+      <c r="F74">
+        <v>-0.06605780142376033</v>
+      </c>
+      <c r="G74">
+        <v>-0.07803925358813119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1187669716755521</v>
+        <v>0.248349555672059</v>
       </c>
       <c r="C75">
-        <v>-0.08796864946692901</v>
+        <v>-0.1518349440676086</v>
       </c>
       <c r="D75">
-        <v>-0.294185525578069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03150686641663118</v>
+      </c>
+      <c r="E75">
+        <v>-0.08603486295666531</v>
+      </c>
+      <c r="F75">
+        <v>-0.1621375246005132</v>
+      </c>
+      <c r="G75">
+        <v>0.03125065562816043</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05208062796587391</v>
+        <v>0.1175577633336913</v>
       </c>
       <c r="C76">
-        <v>-0.04624399650484741</v>
+        <v>-0.1105862111016543</v>
       </c>
       <c r="D76">
-        <v>-0.1926832375789487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01734385885403207</v>
+      </c>
+      <c r="E76">
+        <v>-0.03241564749811205</v>
+      </c>
+      <c r="F76">
+        <v>-0.0939841070359337</v>
+      </c>
+      <c r="G76">
+        <v>-0.05403478530212606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01811110270052321</v>
+        <v>0.07024115023527275</v>
       </c>
       <c r="C77">
-        <v>-0.001035433858986865</v>
+        <v>-0.05878274927787372</v>
       </c>
       <c r="D77">
-        <v>-0.0822266859029798</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01009308610299098</v>
+      </c>
+      <c r="E77">
+        <v>0.05235273738943422</v>
+      </c>
+      <c r="F77">
+        <v>5.897884332860091e-05</v>
+      </c>
+      <c r="G77">
+        <v>-0.0691460021404055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008778239877938743</v>
+        <v>0.04214297866355024</v>
       </c>
       <c r="C78">
-        <v>-0.0007970948341710987</v>
+        <v>-0.04994116034086462</v>
       </c>
       <c r="D78">
-        <v>-0.06349733011587327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006368858183458336</v>
+      </c>
+      <c r="E78">
+        <v>0.03653646562845476</v>
+      </c>
+      <c r="F78">
+        <v>0.03170155642877688</v>
+      </c>
+      <c r="G78">
+        <v>-0.1030154952364611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0007860726082170005</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0006302431702173113</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003288992382901278</v>
+      </c>
+      <c r="E79">
+        <v>0.003427510131529109</v>
+      </c>
+      <c r="F79">
+        <v>0.0007474158008111434</v>
+      </c>
+      <c r="G79">
+        <v>-0.001964404287244609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03706011850560324</v>
+        <v>0.04449242848508393</v>
       </c>
       <c r="C80">
-        <v>-0.01065030767369921</v>
+        <v>-0.0504727703159261</v>
       </c>
       <c r="D80">
-        <v>-0.08123661196333522</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.013125443992207</v>
+      </c>
+      <c r="E80">
+        <v>0.02693573167323855</v>
+      </c>
+      <c r="F80">
+        <v>0.002754889940930226</v>
+      </c>
+      <c r="G80">
+        <v>-0.05317590170603626</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06198975346865122</v>
+        <v>0.1375410649567004</v>
       </c>
       <c r="C81">
-        <v>-0.04578214522152707</v>
+        <v>-0.09710143955426584</v>
       </c>
       <c r="D81">
-        <v>-0.1658096559928089</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01511021737210084</v>
+      </c>
+      <c r="E81">
+        <v>-0.04758216112032025</v>
+      </c>
+      <c r="F81">
+        <v>-0.1232928197468558</v>
+      </c>
+      <c r="G81">
+        <v>-0.01941458629885316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.003398335216756753</v>
+        <v>0.1412435583676423</v>
       </c>
       <c r="C82">
-        <v>-0.002246669697771015</v>
+        <v>-0.08222381459527735</v>
       </c>
       <c r="D82">
-        <v>-0.0007167773523068975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01081218143924486</v>
+      </c>
+      <c r="E82">
+        <v>-0.1137510051792984</v>
+      </c>
+      <c r="F82">
+        <v>-0.05241471168020497</v>
+      </c>
+      <c r="G82">
+        <v>-0.05815459393774899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01374413596672</v>
+        <v>0.03515267647041705</v>
       </c>
       <c r="C83">
-        <v>-0.00429351278203999</v>
+        <v>-0.02965154217567675</v>
       </c>
       <c r="D83">
-        <v>-0.01925393960385341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005979746424869332</v>
+      </c>
+      <c r="E83">
+        <v>0.03149287083984117</v>
+      </c>
+      <c r="F83">
+        <v>0.02617501918092518</v>
+      </c>
+      <c r="G83">
+        <v>-0.06066463985581637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1033506008886905</v>
+        <v>0.2095005576899285</v>
       </c>
       <c r="C85">
-        <v>-0.0645315664965454</v>
+        <v>-0.1469793004173924</v>
       </c>
       <c r="D85">
-        <v>-0.2527066041082501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0172068458313637</v>
+      </c>
+      <c r="E85">
+        <v>-0.1113376339362843</v>
+      </c>
+      <c r="F85">
+        <v>-0.09987244238921034</v>
+      </c>
+      <c r="G85">
+        <v>0.07100844541228138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01143508814646797</v>
+        <v>0.01309494562560629</v>
       </c>
       <c r="C86">
-        <v>-0.001192558855687724</v>
+        <v>-0.02720504929002957</v>
       </c>
       <c r="D86">
-        <v>-0.03563180506827325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01177625382865041</v>
+      </c>
+      <c r="E86">
+        <v>0.05224277032085776</v>
+      </c>
+      <c r="F86">
+        <v>0.009381879644230111</v>
+      </c>
+      <c r="G86">
+        <v>-0.1926845517097949</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006722395044517621</v>
+        <v>0.02219777876190336</v>
       </c>
       <c r="C87">
-        <v>0.01384054159133287</v>
+        <v>-0.01919366453190731</v>
       </c>
       <c r="D87">
-        <v>-0.03151923612333469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01235350935684066</v>
+      </c>
+      <c r="E87">
+        <v>0.09959370554131371</v>
+      </c>
+      <c r="F87">
+        <v>-0.006869561922812109</v>
+      </c>
+      <c r="G87">
+        <v>-0.1236635563527439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04832166264073756</v>
+        <v>0.09356598276092438</v>
       </c>
       <c r="C88">
-        <v>-0.00382412690597927</v>
+        <v>-0.06849579376809299</v>
       </c>
       <c r="D88">
-        <v>-0.04129401280319181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02210250854513928</v>
+      </c>
+      <c r="E88">
+        <v>-0.00487371142122452</v>
+      </c>
+      <c r="F88">
+        <v>-0.01933784534087675</v>
+      </c>
+      <c r="G88">
+        <v>-0.1043477831364541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3328178914347891</v>
+        <v>0.2306262088496784</v>
       </c>
       <c r="C89">
-        <v>-0.1911703345886437</v>
+        <v>0.3678146161563799</v>
       </c>
       <c r="D89">
-        <v>0.2152412012165615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002786772040979402</v>
+      </c>
+      <c r="E89">
+        <v>-0.02207348716758333</v>
+      </c>
+      <c r="F89">
+        <v>-0.0250867848560839</v>
+      </c>
+      <c r="G89">
+        <v>-0.06947319518118843</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2797133988059148</v>
+        <v>0.2076585309629231</v>
       </c>
       <c r="C90">
-        <v>-0.1644797748033825</v>
+        <v>0.3172192815388104</v>
       </c>
       <c r="D90">
-        <v>0.1909319450427098</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004569467157270243</v>
+      </c>
+      <c r="E90">
+        <v>1.560375863233754e-05</v>
+      </c>
+      <c r="F90">
+        <v>-0.05094907965669825</v>
+      </c>
+      <c r="G90">
+        <v>-0.04437988170880593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09706558821341479</v>
+        <v>0.1855095113774762</v>
       </c>
       <c r="C91">
-        <v>-0.07487986508854333</v>
+        <v>-0.1400439473392006</v>
       </c>
       <c r="D91">
-        <v>-0.2172295366631574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02232189631915222</v>
+      </c>
+      <c r="E91">
+        <v>-0.07715496256506098</v>
+      </c>
+      <c r="F91">
+        <v>-0.130779941897343</v>
+      </c>
+      <c r="G91">
+        <v>-0.02662716162553744</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2325951562764048</v>
+        <v>0.1990341121214529</v>
       </c>
       <c r="C92">
-        <v>-0.1727107427815091</v>
+        <v>0.2574486167584942</v>
       </c>
       <c r="D92">
-        <v>0.1008946382666963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03830416478167732</v>
+      </c>
+      <c r="E92">
+        <v>0.03267908301051119</v>
+      </c>
+      <c r="F92">
+        <v>-0.06649677309278497</v>
+      </c>
+      <c r="G92">
+        <v>-0.1136713347382918</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2972012100631304</v>
+        <v>0.2322157510821825</v>
       </c>
       <c r="C93">
-        <v>-0.1819496488589656</v>
+        <v>0.3114054049673604</v>
       </c>
       <c r="D93">
-        <v>0.1544055327905255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01153250141631292</v>
+      </c>
+      <c r="E93">
+        <v>0.001193109356294024</v>
+      </c>
+      <c r="F93">
+        <v>-0.04603171443925967</v>
+      </c>
+      <c r="G93">
+        <v>-0.05609858043875079</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1317709470795096</v>
+        <v>0.3181386983479536</v>
       </c>
       <c r="C94">
-        <v>-0.07206173349433538</v>
+        <v>-0.1840925385362228</v>
       </c>
       <c r="D94">
-        <v>-0.2714935600980661</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02020473401420647</v>
+      </c>
+      <c r="E94">
+        <v>-0.2720026127933679</v>
+      </c>
+      <c r="F94">
+        <v>-0.4482569766386363</v>
+      </c>
+      <c r="G94">
+        <v>0.396157878684641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004945699316091155</v>
+        <v>0.09808295525950637</v>
       </c>
       <c r="C95">
-        <v>-0.01118555056982704</v>
+        <v>-0.08698695571371941</v>
       </c>
       <c r="D95">
-        <v>-0.1315982317744798</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01013581744006422</v>
+      </c>
+      <c r="E95">
+        <v>0.09184396727211494</v>
+      </c>
+      <c r="F95">
+        <v>0.1580250238516834</v>
+      </c>
+      <c r="G95">
+        <v>-0.01942399929119962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1381406077318619</v>
+        <v>0.1937388943317158</v>
       </c>
       <c r="C98">
-        <v>-0.1008527151014824</v>
+        <v>-0.04328092631960578</v>
       </c>
       <c r="D98">
-        <v>-0.1340672931804738</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0122220379067878</v>
+      </c>
+      <c r="E98">
+        <v>0.1015842485643471</v>
+      </c>
+      <c r="F98">
+        <v>0.2343324738299254</v>
+      </c>
+      <c r="G98">
+        <v>0.02534445571810191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006959369082899793</v>
+        <v>0.008518660862349561</v>
       </c>
       <c r="C101">
-        <v>0.002977266288392105</v>
+        <v>-0.02300381842764493</v>
       </c>
       <c r="D101">
-        <v>-0.01473340184473687</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00924988182979845</v>
+      </c>
+      <c r="E101">
+        <v>0.004561826905587943</v>
+      </c>
+      <c r="F101">
+        <v>-0.01607543492061397</v>
+      </c>
+      <c r="G101">
+        <v>-0.1023873534228602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05815021518114196</v>
+        <v>0.1146433871361946</v>
       </c>
       <c r="C102">
-        <v>-0.02810423264064402</v>
+        <v>-0.0819840044061296</v>
       </c>
       <c r="D102">
-        <v>-0.1299366058671189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0007332313359430385</v>
+      </c>
+      <c r="E102">
+        <v>-0.0396510162468794</v>
+      </c>
+      <c r="F102">
+        <v>-0.03714091766027937</v>
+      </c>
+      <c r="G102">
+        <v>-0.008988274056410514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5160553009073856</v>
+        <v>0.02134949541122999</v>
       </c>
       <c r="C104">
-        <v>0.8462535250182484</v>
+        <v>0.02980325709851809</v>
       </c>
       <c r="D104">
-        <v>0.02211490324372515</v>
+        <v>-0.987738286173048</v>
+      </c>
+      <c r="E104">
+        <v>-0.05765542463108603</v>
+      </c>
+      <c r="F104">
+        <v>-0.03014012051769468</v>
+      </c>
+      <c r="G104">
+        <v>0.04083721461444371</v>
       </c>
     </row>
   </sheetData>
